--- a/GameEngineering/GameEngineering/result.xlsx
+++ b/GameEngineering/GameEngineering/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u5674759\source\repos\GameEngineering\GameEngineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22870\source\repos\GamesEngineering\GameEngineering\GameEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7DA5A95F-1A03-496D-AAA9-148042C8D1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DE0D57-0942-4F0E-AF96-CB115CECB17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="80" windowWidth="14400" windowHeight="8170" xr2:uid="{ED76F7D0-EABA-402B-A29B-D47D488FB6C6}"/>
+    <workbookView xWindow="14145" yWindow="5295" windowWidth="28800" windowHeight="15435" xr2:uid="{ED76F7D0-EABA-402B-A29B-D47D488FB6C6}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -436,13 +443,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7047C4-0A7E-4DB0-A419-5F68E1B778D1}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -465,7 +472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="B2">
         <v>7548.86</v>
       </c>
@@ -485,7 +492,7 @@
         <v>8182.58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="B3">
         <v>6455.98</v>
       </c>
@@ -505,7 +512,7 @@
         <v>8694.9500000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="B4">
         <v>6761.25</v>
       </c>
@@ -525,7 +532,7 @@
         <v>8371.6299999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="B5">
         <v>6768.08</v>
       </c>
@@ -545,7 +552,7 @@
         <v>8506.2000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="B6">
         <v>6711.83</v>
       </c>
@@ -565,7 +572,7 @@
         <v>8295.2199999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>6703.02</v>
       </c>
@@ -585,7 +592,7 @@
         <v>8254.8799999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="B8">
         <v>6726.99</v>
       </c>
@@ -605,7 +612,7 @@
         <v>8120.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="B9">
         <v>6612.47</v>
       </c>
@@ -625,7 +632,7 @@
         <v>8857.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="B10">
         <v>6707.87</v>
       </c>
@@ -645,7 +652,7 @@
         <v>8479.73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>6766.65</v>
       </c>
@@ -665,217 +672,71 @@
         <v>8652.77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>5517.76</v>
-      </c>
-      <c r="C15">
-        <v>6413.71</v>
-      </c>
-      <c r="D15">
-        <v>7054</v>
-      </c>
-      <c r="E15">
-        <v>6884.05</v>
-      </c>
-      <c r="F15">
-        <v>6899.18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>20919.099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16">
-        <v>6034.98</v>
-      </c>
-      <c r="C16">
-        <v>5982.34</v>
-      </c>
-      <c r="D16">
-        <v>6324.68</v>
-      </c>
-      <c r="E16">
-        <v>6359.76</v>
-      </c>
-      <c r="F16">
-        <v>6220.83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>5472.64</v>
-      </c>
-      <c r="C17">
-        <v>5196.47</v>
-      </c>
-      <c r="D17">
-        <v>5232.51</v>
-      </c>
-      <c r="E17">
-        <v>5397.79</v>
-      </c>
-      <c r="F17">
-        <v>5471.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>5547.15</v>
-      </c>
-      <c r="C18">
-        <v>5191.7700000000004</v>
-      </c>
-      <c r="D18">
-        <v>5361.86</v>
-      </c>
-      <c r="E18">
-        <v>5425.48</v>
-      </c>
-      <c r="F18">
-        <v>5393.14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19">
-        <v>5755.45</v>
-      </c>
-      <c r="C19">
-        <v>6079.18</v>
-      </c>
-      <c r="D19">
-        <v>6321.61</v>
-      </c>
-      <c r="E19">
-        <v>6660</v>
-      </c>
-      <c r="F19">
-        <v>6435.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20">
-        <v>5804.51</v>
-      </c>
-      <c r="C20">
-        <v>6159.4</v>
-      </c>
-      <c r="D20">
-        <v>7567.49</v>
-      </c>
-      <c r="E20">
-        <v>7153.57</v>
-      </c>
-      <c r="F20">
-        <v>7259.62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21">
-        <v>5664.29</v>
-      </c>
-      <c r="C21">
-        <v>5489.75</v>
-      </c>
-      <c r="D21">
-        <v>5818.05</v>
-      </c>
-      <c r="E21">
-        <v>5985.83</v>
-      </c>
-      <c r="F21">
-        <v>5883.79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>9</v>
       </c>
-      <c r="B22">
-        <v>5897.44</v>
-      </c>
-      <c r="C22">
-        <v>6168.74</v>
-      </c>
-      <c r="D22">
-        <v>6318.86</v>
-      </c>
-      <c r="E22">
-        <v>6284.06</v>
-      </c>
-      <c r="F22">
-        <v>6201.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23">
-        <v>5595.27</v>
-      </c>
-      <c r="C23">
-        <v>5257.96</v>
-      </c>
-      <c r="D23">
-        <v>5411.5</v>
-      </c>
-      <c r="E23">
-        <v>5737.75</v>
-      </c>
-      <c r="F23">
-        <v>5879.49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24">
-        <v>5715.55</v>
-      </c>
-      <c r="C24">
-        <v>5720.61</v>
-      </c>
-      <c r="D24">
-        <v>5801.11</v>
-      </c>
-      <c r="E24">
-        <v>5662.06</v>
-      </c>
-      <c r="F24">
-        <v>5817.32</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>